--- a/results/reg_ablation.xlsx
+++ b/results/reg_ablation.xlsx
@@ -100,31 +100,31 @@
     <t>vary_model</t>
   </si>
   <si>
-    <t>target=1.0,p=1.0</t>
+    <t>t=1.0,p=1.0</t>
   </si>
   <si>
-    <t>target=0.75,p=0.75</t>
+    <t>t=0.75,p=0.75</t>
   </si>
   <si>
-    <t>target=0.75,p=0.6</t>
+    <t>t=0.75,p=0.6</t>
   </si>
   <si>
-    <t>target=0.75,p=0.5</t>
+    <t>t=0.75,p=0.5</t>
   </si>
   <si>
-    <t>target=0.75,p=0.4</t>
+    <t>t=0.75,p=0.4</t>
   </si>
   <si>
-    <t>target=1.2,p=1.4</t>
+    <t>t=1.2,p=1.4</t>
   </si>
   <si>
-    <t>target=1.2,p=1.5</t>
+    <t>t=1.2,p=1.5</t>
   </si>
   <si>
-    <t>target=1.2,p=1.6</t>
+    <t>t=1.2,p=1.6</t>
   </si>
   <si>
-    <t>target=1.2,p=1.7</t>
+    <t>t=1.2,p=1.7</t>
   </si>
   <si>
     <t>(0.333, 0.333, 0.333)</t>
@@ -154,31 +154,31 @@
     <t>(0.19, 0.01, 0.8)</t>
   </si>
   <si>
-    <t>alpha=1.0,noise=5.0</t>
+    <t>a=1.0,b=5.0</t>
   </si>
   <si>
-    <t>alpha=0.8,noise=5.0</t>
+    <t>a=0.8,b=5.0</t>
   </si>
   <si>
-    <t>alpha=1.2,noise=5.0</t>
+    <t>a=1.2,b=5.0</t>
   </si>
   <si>
-    <t>alpha=1.0,noise=10.0</t>
+    <t>a=1.0,b=10.0</t>
   </si>
   <si>
-    <t>alpha=0.8,noise=10.0</t>
+    <t>a=0.8,b=10.0</t>
   </si>
   <si>
-    <t>alpha=1.2,noise=10.0</t>
+    <t>a=1.2,b=10.0</t>
   </si>
   <si>
-    <t>alpha=1.0,noise=20.0</t>
+    <t>a=1.0,b=20.0</t>
   </si>
   <si>
-    <t>alpha=0.8,noise=20.0</t>
+    <t>a=0.8,b=20.0</t>
   </si>
   <si>
-    <t>alpha=1.2,noise=20.0</t>
+    <t>a=1.2,b=20.0</t>
   </si>
 </sst>
 </file>
